--- a/res/multivariate/multivariate.xlsx
+++ b/res/multivariate/multivariate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Model structure" sheetId="14" r:id="rId1"/>
@@ -2802,7 +2802,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
+            <a:gd name="adj1" fmla="val 5100000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3098,7 +3098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -5959,8 +5959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
